--- a/resources/base.xlsx
+++ b/resources/base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\raspisanie2\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python_projects\raspisanie\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2840CB3C-AD4A-4AC7-B077-B15DEC8E9D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394319C1-EEB9-4952-9DBA-9D003E391A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +100,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF1B4715"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
@@ -388,28 +399,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -695,7 +706,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,6 +870,6 @@
     <mergeCell ref="J1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>